--- a/database/sidis/expdata/2040.xlsx
+++ b/database/sidis/expdata/2040.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Liu/Repos/fitpack/database/sidis/expdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B13C197-0FC4-D049-824B-29C914479D4B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16760" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
+    <workbookView xWindow="12420" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -91,14 +97,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>systabs</t>
+    <t>systabs_u</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,12 +188,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -512,19 +526,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1026" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -630,7 +644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -683,7 +697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -736,7 +750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -789,7 +803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -842,7 +856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -895,7 +909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -948,7 +962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1001,7 +1015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1054,7 +1068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1107,7 +1121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1160,7 +1174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1213,7 +1227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1266,7 +1280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1319,7 +1333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1372,7 +1386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1425,7 +1439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1478,7 +1492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1531,7 +1545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1584,7 +1598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>

--- a/database/sidis/expdata/2040.xlsx
+++ b/database/sidis/expdata/2040.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/TMD-PHENO-REPOS/fitpack/database/sidis/expdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16760" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
+    <workbookView xWindow="16760" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -91,8 +99,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>systabs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>systabs_u</t>
   </si>
 </sst>
 </file>
@@ -182,12 +189,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -516,15 +528,15 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1026" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -630,7 +642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -683,7 +695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -736,7 +748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -789,7 +801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -842,7 +854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -895,7 +907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -948,7 +960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1001,7 +1013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1054,7 +1066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1107,7 +1119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1160,7 +1172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1213,7 +1225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1266,7 +1278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1319,7 +1331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1372,7 +1384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1425,7 +1437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1531,7 +1543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1584,7 +1596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1641,10 +1653,5 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>